--- a/repair_price2.xlsx
+++ b/repair_price2.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37028105-DA53-4A7D-83B5-C0DEC8994326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B0265-6C0B-4C81-9718-E807DED8DF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -456,7 +469,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/repair_price2.xlsx
+++ b/repair_price2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B0265-6C0B-4C81-9718-E807DED8DF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5DB0B-CCC7-4100-8196-9AAF2AE830A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>タイプ</t>
   </si>
@@ -94,6 +94,62 @@
   </si>
   <si>
     <t>座と背が一体型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>座:置きクッション　タイプ2　×　1.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>座:置きクッション　タイプ2　×　2.5</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -159,11 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -466,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -501,8 +558,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
         <v>12000</v>
@@ -524,8 +581,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B3">
         <v>12000</v>
@@ -547,8 +604,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B4">
         <v>14000</v>
@@ -570,8 +627,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B5">
         <v>17000</v>
@@ -593,8 +650,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B6">
         <v>42000</v>
@@ -616,8 +673,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B7">
         <v>30000</v>
@@ -639,8 +696,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B8">
         <v>58000</v>
@@ -662,8 +719,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B9">
         <v>54000</v>
@@ -685,8 +742,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B10">
         <v>25000</v>
@@ -708,8 +765,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B11">
         <v>24000</v>
@@ -731,8 +788,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B12">
         <v>36000</v>
@@ -754,8 +811,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B13">
         <v>33000</v>
@@ -774,6 +831,62 @@
       </c>
       <c r="G13" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>B3*1.8</f>
+        <v>21600</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="0">C3*1.8</f>
+        <v>23400</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>43200</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>48600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>B3*2.5</f>
+        <v>30000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:F15" si="1">C3*2.5</f>
+        <v>32500</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>67500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
